--- a/DE LEON.xlsx
+++ b/DE LEON.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U-Nick-Lo\Desktop\School Needs\SE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,19 +32,19 @@
     <t>Date End</t>
   </si>
   <si>
-    <t>Research about proposals</t>
-  </si>
-  <si>
     <t>Time Start</t>
   </si>
   <si>
     <t>Time End</t>
   </si>
+  <si>
+    <t>chart and presentatipn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,6 +91,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -133,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +388,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,21 +411,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>43712</v>
+        <v>43728</v>
       </c>
       <c r="C2" s="1">
-        <v>43712</v>
+        <v>43733</v>
       </c>
       <c r="D2" s="3">
         <v>0.83333333333333337</v>

--- a/DE LEON.xlsx
+++ b/DE LEON.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Activities</t>
   </si>
@@ -38,7 +38,10 @@
     <t>Time End</t>
   </si>
   <si>
-    <t>chart and presentatipn</t>
+    <t>chart and presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped with designing of forms </t>
   </si>
 </sst>
 </file>
@@ -74,13 +77,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,13 +429,24 @@
         <v>43728</v>
       </c>
       <c r="C2" s="1">
-        <v>43733</v>
+        <v>43731</v>
       </c>
       <c r="D2" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="E2" s="3">
         <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43729</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43732</v>
       </c>
     </row>
   </sheetData>
